--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2786.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2786.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169586694144935</v>
+        <v>1.228521823883057</v>
       </c>
       <c r="B1">
-        <v>2.433869191632817</v>
+        <v>1.722233533859253</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.101752519607544</v>
       </c>
       <c r="D1">
-        <v>2.366650448946004</v>
+        <v>3.745893955230713</v>
       </c>
       <c r="E1">
-        <v>1.231466257889563</v>
+        <v>1.369771838188171</v>
       </c>
     </row>
   </sheetData>
